--- a/data_original.xlsx
+++ b/data_original.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sekar\Downloads\SKRIPSI\lefood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sekar\Downloads\SKRIPSI\LeFood-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9FBF80-FA04-4C3E-9A2A-D5B7F9C0734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2921233A-D7F2-4C47-8687-1EDF4A50E4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1414">
   <si>
     <t>Image Before Eaten</t>
   </si>
@@ -4259,6 +4259,9 @@
   </si>
   <si>
     <t>Visual Estimation by Observer (1-7)</t>
+  </si>
+  <si>
+    <t>Comstock Level</t>
   </si>
 </sst>
 </file>
@@ -4287,7 +4290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4310,17 +4313,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4624,24 +4641,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G679"/>
+  <dimension ref="A1:H679"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1408</v>
       </c>
@@ -4663,8 +4681,11 @@
       <c r="G1" s="1" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4686,8 +4707,11 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4709,8 +4733,11 @@
       <c r="G3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4732,8 +4759,11 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4755,8 +4785,11 @@
       <c r="G5" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4778,8 +4811,11 @@
       <c r="G6" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4801,8 +4837,11 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4824,8 +4863,11 @@
       <c r="G8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4847,8 +4889,11 @@
       <c r="G9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4870,8 +4915,11 @@
       <c r="G10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4893,8 +4941,11 @@
       <c r="G11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4916,8 +4967,11 @@
       <c r="G12" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4939,8 +4993,11 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4962,8 +5019,11 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4985,8 +5045,11 @@
       <c r="G15" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5008,8 +5071,11 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5031,8 +5097,11 @@
       <c r="G17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5054,8 +5123,11 @@
       <c r="G18" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5077,8 +5149,11 @@
       <c r="G19" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5100,8 +5175,11 @@
       <c r="G20" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5123,8 +5201,11 @@
       <c r="G21" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5146,8 +5227,11 @@
       <c r="G22" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5169,8 +5253,11 @@
       <c r="G23" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5192,8 +5279,11 @@
       <c r="G24" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5215,8 +5305,11 @@
       <c r="G25" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5238,8 +5331,11 @@
       <c r="G26" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5261,8 +5357,11 @@
       <c r="G27" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5284,8 +5383,11 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5307,8 +5409,11 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5330,8 +5435,11 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5353,8 +5461,11 @@
       <c r="G31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5376,8 +5487,11 @@
       <c r="G32" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5399,8 +5513,11 @@
       <c r="G33" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5422,8 +5539,11 @@
       <c r="G34" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5445,8 +5565,11 @@
       <c r="G35" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5468,8 +5591,11 @@
       <c r="G36" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5491,8 +5617,11 @@
       <c r="G37" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5514,8 +5643,11 @@
       <c r="G38" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5537,8 +5669,11 @@
       <c r="G39" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5560,8 +5695,11 @@
       <c r="G40" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5583,8 +5721,11 @@
       <c r="G41" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5606,8 +5747,11 @@
       <c r="G42" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>43</v>
       </c>
@@ -5629,8 +5773,11 @@
       <c r="G43" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>44</v>
       </c>
@@ -5652,8 +5799,11 @@
       <c r="G44" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>45</v>
       </c>
@@ -5675,8 +5825,11 @@
       <c r="G45" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>46</v>
       </c>
@@ -5698,8 +5851,11 @@
       <c r="G46" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>47</v>
       </c>
@@ -5721,8 +5877,11 @@
       <c r="G47" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>48</v>
       </c>
@@ -5744,8 +5903,11 @@
       <c r="G48" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>49</v>
       </c>
@@ -5767,8 +5929,11 @@
       <c r="G49" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>50</v>
       </c>
@@ -5790,8 +5955,11 @@
       <c r="G50" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>51</v>
       </c>
@@ -5813,8 +5981,11 @@
       <c r="G51" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>52</v>
       </c>
@@ -5836,8 +6007,11 @@
       <c r="G52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>53</v>
       </c>
@@ -5859,8 +6033,11 @@
       <c r="G53" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>54</v>
       </c>
@@ -5882,8 +6059,11 @@
       <c r="G54" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>55</v>
       </c>
@@ -5905,8 +6085,11 @@
       <c r="G55" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>56</v>
       </c>
@@ -5928,8 +6111,11 @@
       <c r="G56" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>57</v>
       </c>
@@ -5951,8 +6137,11 @@
       <c r="G57" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>58</v>
       </c>
@@ -5974,8 +6163,11 @@
       <c r="G58" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>59</v>
       </c>
@@ -5997,8 +6189,11 @@
       <c r="G59" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>60</v>
       </c>
@@ -6020,8 +6215,11 @@
       <c r="G60" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>61</v>
       </c>
@@ -6043,8 +6241,11 @@
       <c r="G61" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>62</v>
       </c>
@@ -6066,8 +6267,11 @@
       <c r="G62" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>63</v>
       </c>
@@ -6089,8 +6293,11 @@
       <c r="G63" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>64</v>
       </c>
@@ -6112,8 +6319,11 @@
       <c r="G64" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>65</v>
       </c>
@@ -6135,8 +6345,11 @@
       <c r="G65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>66</v>
       </c>
@@ -6158,8 +6371,11 @@
       <c r="G66" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>67</v>
       </c>
@@ -6181,8 +6397,11 @@
       <c r="G67" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>68</v>
       </c>
@@ -6204,8 +6423,11 @@
       <c r="G68" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>69</v>
       </c>
@@ -6227,8 +6449,11 @@
       <c r="G69" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>70</v>
       </c>
@@ -6250,8 +6475,11 @@
       <c r="G70" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>71</v>
       </c>
@@ -6273,8 +6501,11 @@
       <c r="G71" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>72</v>
       </c>
@@ -6296,8 +6527,11 @@
       <c r="G72" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>73</v>
       </c>
@@ -6319,8 +6553,11 @@
       <c r="G73" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>74</v>
       </c>
@@ -6342,8 +6579,11 @@
       <c r="G74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>75</v>
       </c>
@@ -6365,8 +6605,11 @@
       <c r="G75" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>76</v>
       </c>
@@ -6388,8 +6631,11 @@
       <c r="G76" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>77</v>
       </c>
@@ -6411,8 +6657,11 @@
       <c r="G77" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>78</v>
       </c>
@@ -6434,8 +6683,11 @@
       <c r="G78" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>79</v>
       </c>
@@ -6457,8 +6709,11 @@
       <c r="G79" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>80</v>
       </c>
@@ -6480,8 +6735,11 @@
       <c r="G80" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>81</v>
       </c>
@@ -6503,8 +6761,11 @@
       <c r="G81" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>82</v>
       </c>
@@ -6526,8 +6787,11 @@
       <c r="G82" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>83</v>
       </c>
@@ -6549,8 +6813,11 @@
       <c r="G83" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>84</v>
       </c>
@@ -6572,8 +6839,11 @@
       <c r="G84" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>85</v>
       </c>
@@ -6595,8 +6865,11 @@
       <c r="G85" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>86</v>
       </c>
@@ -6618,8 +6891,11 @@
       <c r="G86" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>87</v>
       </c>
@@ -6641,8 +6917,11 @@
       <c r="G87" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>88</v>
       </c>
@@ -6664,8 +6943,11 @@
       <c r="G88" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>89</v>
       </c>
@@ -6687,8 +6969,11 @@
       <c r="G89" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>90</v>
       </c>
@@ -6710,8 +6995,11 @@
       <c r="G90" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>91</v>
       </c>
@@ -6733,8 +7021,11 @@
       <c r="G91" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>92</v>
       </c>
@@ -6756,8 +7047,11 @@
       <c r="G92" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>93</v>
       </c>
@@ -6779,8 +7073,11 @@
       <c r="G93" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>94</v>
       </c>
@@ -6802,8 +7099,11 @@
       <c r="G94" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>95</v>
       </c>
@@ -6825,8 +7125,11 @@
       <c r="G95" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>96</v>
       </c>
@@ -6848,8 +7151,11 @@
       <c r="G96" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>97</v>
       </c>
@@ -6871,8 +7177,11 @@
       <c r="G97" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>98</v>
       </c>
@@ -6894,8 +7203,11 @@
       <c r="G98" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>99</v>
       </c>
@@ -6917,8 +7229,11 @@
       <c r="G99" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>100</v>
       </c>
@@ -6940,8 +7255,11 @@
       <c r="G100" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>101</v>
       </c>
@@ -6963,8 +7281,11 @@
       <c r="G101" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>102</v>
       </c>
@@ -6986,8 +7307,11 @@
       <c r="G102" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>103</v>
       </c>
@@ -7009,8 +7333,11 @@
       <c r="G103" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>104</v>
       </c>
@@ -7032,8 +7359,11 @@
       <c r="G104" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>105</v>
       </c>
@@ -7055,8 +7385,11 @@
       <c r="G105" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>106</v>
       </c>
@@ -7078,8 +7411,11 @@
       <c r="G106" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>107</v>
       </c>
@@ -7101,8 +7437,11 @@
       <c r="G107" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>108</v>
       </c>
@@ -7124,8 +7463,11 @@
       <c r="G108" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>109</v>
       </c>
@@ -7147,8 +7489,11 @@
       <c r="G109" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>110</v>
       </c>
@@ -7170,8 +7515,11 @@
       <c r="G110" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>111</v>
       </c>
@@ -7193,8 +7541,11 @@
       <c r="G111" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>112</v>
       </c>
@@ -7216,8 +7567,11 @@
       <c r="G112" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>113</v>
       </c>
@@ -7239,8 +7593,11 @@
       <c r="G113" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>114</v>
       </c>
@@ -7262,8 +7619,11 @@
       <c r="G114" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>115</v>
       </c>
@@ -7285,8 +7645,11 @@
       <c r="G115" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>116</v>
       </c>
@@ -7308,8 +7671,11 @@
       <c r="G116" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>117</v>
       </c>
@@ -7331,8 +7697,11 @@
       <c r="G117" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>118</v>
       </c>
@@ -7354,8 +7723,11 @@
       <c r="G118" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>119</v>
       </c>
@@ -7377,8 +7749,11 @@
       <c r="G119" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>120</v>
       </c>
@@ -7400,8 +7775,11 @@
       <c r="G120" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>121</v>
       </c>
@@ -7423,8 +7801,11 @@
       <c r="G121" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>122</v>
       </c>
@@ -7446,8 +7827,11 @@
       <c r="G122" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>123</v>
       </c>
@@ -7469,8 +7853,11 @@
       <c r="G123" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>124</v>
       </c>
@@ -7492,8 +7879,11 @@
       <c r="G124" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>125</v>
       </c>
@@ -7515,8 +7905,11 @@
       <c r="G125" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>126</v>
       </c>
@@ -7538,8 +7931,11 @@
       <c r="G126" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>127</v>
       </c>
@@ -7561,8 +7957,11 @@
       <c r="G127" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>128</v>
       </c>
@@ -7584,8 +7983,11 @@
       <c r="G128" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>130</v>
       </c>
@@ -7607,8 +8009,11 @@
       <c r="G129" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>131</v>
       </c>
@@ -7630,8 +8035,11 @@
       <c r="G130" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>132</v>
       </c>
@@ -7653,8 +8061,11 @@
       <c r="G131" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>133</v>
       </c>
@@ -7676,8 +8087,11 @@
       <c r="G132" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>134</v>
       </c>
@@ -7699,8 +8113,11 @@
       <c r="G133" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>135</v>
       </c>
@@ -7722,8 +8139,11 @@
       <c r="G134" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>136</v>
       </c>
@@ -7745,8 +8165,11 @@
       <c r="G135" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>137</v>
       </c>
@@ -7768,8 +8191,11 @@
       <c r="G136" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>138</v>
       </c>
@@ -7791,8 +8217,11 @@
       <c r="G137" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>139</v>
       </c>
@@ -7814,8 +8243,11 @@
       <c r="G138" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>140</v>
       </c>
@@ -7837,8 +8269,11 @@
       <c r="G139" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>142</v>
       </c>
@@ -7860,8 +8295,11 @@
       <c r="G140" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>143</v>
       </c>
@@ -7883,8 +8321,11 @@
       <c r="G141" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>144</v>
       </c>
@@ -7906,8 +8347,11 @@
       <c r="G142" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>145</v>
       </c>
@@ -7929,8 +8373,11 @@
       <c r="G143" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>146</v>
       </c>
@@ -7952,8 +8399,11 @@
       <c r="G144" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>147</v>
       </c>
@@ -7975,8 +8425,11 @@
       <c r="G145" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>148</v>
       </c>
@@ -7998,8 +8451,11 @@
       <c r="G146" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>149</v>
       </c>
@@ -8021,8 +8477,11 @@
       <c r="G147" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>150</v>
       </c>
@@ -8044,8 +8503,11 @@
       <c r="G148" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>151</v>
       </c>
@@ -8067,8 +8529,11 @@
       <c r="G149" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>152</v>
       </c>
@@ -8090,8 +8555,11 @@
       <c r="G150" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>153</v>
       </c>
@@ -8113,8 +8581,11 @@
       <c r="G151" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>154</v>
       </c>
@@ -8136,8 +8607,11 @@
       <c r="G152" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>155</v>
       </c>
@@ -8159,8 +8633,11 @@
       <c r="G153" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>156</v>
       </c>
@@ -8182,8 +8659,11 @@
       <c r="G154" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>157</v>
       </c>
@@ -8205,8 +8685,11 @@
       <c r="G155" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>158</v>
       </c>
@@ -8228,8 +8711,11 @@
       <c r="G156" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>159</v>
       </c>
@@ -8251,8 +8737,11 @@
       <c r="G157" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>160</v>
       </c>
@@ -8274,8 +8763,11 @@
       <c r="G158" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>161</v>
       </c>
@@ -8297,8 +8789,11 @@
       <c r="G159" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>162</v>
       </c>
@@ -8320,8 +8815,11 @@
       <c r="G160" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>163</v>
       </c>
@@ -8343,8 +8841,11 @@
       <c r="G161" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>164</v>
       </c>
@@ -8366,8 +8867,11 @@
       <c r="G162" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>165</v>
       </c>
@@ -8389,8 +8893,11 @@
       <c r="G163" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>166</v>
       </c>
@@ -8412,8 +8919,11 @@
       <c r="G164" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>167</v>
       </c>
@@ -8435,8 +8945,11 @@
       <c r="G165" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>168</v>
       </c>
@@ -8458,8 +8971,11 @@
       <c r="G166" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>169</v>
       </c>
@@ -8481,8 +8997,11 @@
       <c r="G167" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>170</v>
       </c>
@@ -8504,8 +9023,11 @@
       <c r="G168" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>171</v>
       </c>
@@ -8527,8 +9049,11 @@
       <c r="G169" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H169">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>172</v>
       </c>
@@ -8550,8 +9075,11 @@
       <c r="G170" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>173</v>
       </c>
@@ -8573,8 +9101,11 @@
       <c r="G171" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>174</v>
       </c>
@@ -8596,8 +9127,11 @@
       <c r="G172" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>175</v>
       </c>
@@ -8619,8 +9153,11 @@
       <c r="G173" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>176</v>
       </c>
@@ -8642,8 +9179,11 @@
       <c r="G174" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>177</v>
       </c>
@@ -8665,8 +9205,11 @@
       <c r="G175" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>178</v>
       </c>
@@ -8688,8 +9231,11 @@
       <c r="G176" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>179</v>
       </c>
@@ -8711,8 +9257,11 @@
       <c r="G177" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>180</v>
       </c>
@@ -8734,8 +9283,11 @@
       <c r="G178" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>181</v>
       </c>
@@ -8757,8 +9309,11 @@
       <c r="G179" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>182</v>
       </c>
@@ -8780,8 +9335,11 @@
       <c r="G180" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>183</v>
       </c>
@@ -8803,8 +9361,11 @@
       <c r="G181" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>184</v>
       </c>
@@ -8826,8 +9387,11 @@
       <c r="G182" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>185</v>
       </c>
@@ -8849,8 +9413,11 @@
       <c r="G183" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>186</v>
       </c>
@@ -8872,8 +9439,11 @@
       <c r="G184" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>187</v>
       </c>
@@ -8895,8 +9465,11 @@
       <c r="G185" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>188</v>
       </c>
@@ -8918,8 +9491,11 @@
       <c r="G186" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>189</v>
       </c>
@@ -8941,8 +9517,11 @@
       <c r="G187" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>190</v>
       </c>
@@ -8964,8 +9543,11 @@
       <c r="G188" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>191</v>
       </c>
@@ -8987,8 +9569,11 @@
       <c r="G189" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>192</v>
       </c>
@@ -9010,8 +9595,11 @@
       <c r="G190" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>193</v>
       </c>
@@ -9033,8 +9621,11 @@
       <c r="G191" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>194</v>
       </c>
@@ -9056,8 +9647,11 @@
       <c r="G192" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>195</v>
       </c>
@@ -9079,8 +9673,11 @@
       <c r="G193" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>196</v>
       </c>
@@ -9102,8 +9699,11 @@
       <c r="G194" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>197</v>
       </c>
@@ -9125,8 +9725,11 @@
       <c r="G195" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H195">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>198</v>
       </c>
@@ -9148,8 +9751,11 @@
       <c r="G196" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>199</v>
       </c>
@@ -9171,8 +9777,11 @@
       <c r="G197" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>200</v>
       </c>
@@ -9194,8 +9803,11 @@
       <c r="G198" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>201</v>
       </c>
@@ -9217,8 +9829,11 @@
       <c r="G199" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>202</v>
       </c>
@@ -9240,8 +9855,11 @@
       <c r="G200" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>203</v>
       </c>
@@ -9263,8 +9881,11 @@
       <c r="G201" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H201">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>204</v>
       </c>
@@ -9286,8 +9907,11 @@
       <c r="G202" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>205</v>
       </c>
@@ -9309,8 +9933,11 @@
       <c r="G203" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>206</v>
       </c>
@@ -9332,8 +9959,11 @@
       <c r="G204" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H204">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>207</v>
       </c>
@@ -9355,8 +9985,11 @@
       <c r="G205" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H205">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>208</v>
       </c>
@@ -9378,8 +10011,11 @@
       <c r="G206" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>209</v>
       </c>
@@ -9401,8 +10037,11 @@
       <c r="G207" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H207">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>210</v>
       </c>
@@ -9424,8 +10063,11 @@
       <c r="G208" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>211</v>
       </c>
@@ -9447,8 +10089,11 @@
       <c r="G209" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>212</v>
       </c>
@@ -9470,8 +10115,11 @@
       <c r="G210" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>213</v>
       </c>
@@ -9493,8 +10141,11 @@
       <c r="G211" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H211">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>214</v>
       </c>
@@ -9516,8 +10167,11 @@
       <c r="G212" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H212">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>215</v>
       </c>
@@ -9539,8 +10193,11 @@
       <c r="G213" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>216</v>
       </c>
@@ -9562,8 +10219,11 @@
       <c r="G214" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H214">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>217</v>
       </c>
@@ -9585,8 +10245,11 @@
       <c r="G215" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>218</v>
       </c>
@@ -9608,8 +10271,11 @@
       <c r="G216" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>219</v>
       </c>
@@ -9631,8 +10297,11 @@
       <c r="G217" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>220</v>
       </c>
@@ -9654,8 +10323,11 @@
       <c r="G218" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>221</v>
       </c>
@@ -9677,8 +10349,11 @@
       <c r="G219" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>222</v>
       </c>
@@ -9700,8 +10375,11 @@
       <c r="G220" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>223</v>
       </c>
@@ -9723,8 +10401,11 @@
       <c r="G221" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H221">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>224</v>
       </c>
@@ -9746,8 +10427,11 @@
       <c r="G222" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>225</v>
       </c>
@@ -9769,8 +10453,11 @@
       <c r="G223" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H223">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>226</v>
       </c>
@@ -9792,8 +10479,11 @@
       <c r="G224" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>227</v>
       </c>
@@ -9815,8 +10505,11 @@
       <c r="G225" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>228</v>
       </c>
@@ -9838,8 +10531,11 @@
       <c r="G226" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>229</v>
       </c>
@@ -9861,8 +10557,11 @@
       <c r="G227" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>230</v>
       </c>
@@ -9884,8 +10583,11 @@
       <c r="G228" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>231</v>
       </c>
@@ -9907,8 +10609,11 @@
       <c r="G229" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>232</v>
       </c>
@@ -9930,8 +10635,11 @@
       <c r="G230" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>233</v>
       </c>
@@ -9953,8 +10661,11 @@
       <c r="G231" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H231">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>234</v>
       </c>
@@ -9976,8 +10687,11 @@
       <c r="G232" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>235</v>
       </c>
@@ -9999,8 +10713,11 @@
       <c r="G233" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H233">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>236</v>
       </c>
@@ -10022,8 +10739,11 @@
       <c r="G234" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>237</v>
       </c>
@@ -10045,8 +10765,11 @@
       <c r="G235" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H235">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>238</v>
       </c>
@@ -10068,8 +10791,11 @@
       <c r="G236" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>239</v>
       </c>
@@ -10091,8 +10817,11 @@
       <c r="G237" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>240</v>
       </c>
@@ -10114,8 +10843,11 @@
       <c r="G238" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H238">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>241</v>
       </c>
@@ -10137,8 +10869,11 @@
       <c r="G239" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>242</v>
       </c>
@@ -10160,8 +10895,11 @@
       <c r="G240" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H240">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>243</v>
       </c>
@@ -10183,8 +10921,11 @@
       <c r="G241" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>244</v>
       </c>
@@ -10206,8 +10947,11 @@
       <c r="G242" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>245</v>
       </c>
@@ -10229,8 +10973,11 @@
       <c r="G243" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>246</v>
       </c>
@@ -10252,8 +10999,11 @@
       <c r="G244" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>247</v>
       </c>
@@ -10275,8 +11025,11 @@
       <c r="G245" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>248</v>
       </c>
@@ -10298,8 +11051,11 @@
       <c r="G246" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>249</v>
       </c>
@@ -10321,8 +11077,11 @@
       <c r="G247" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>250</v>
       </c>
@@ -10344,8 +11103,11 @@
       <c r="G248" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>251</v>
       </c>
@@ -10367,8 +11129,11 @@
       <c r="G249" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>252</v>
       </c>
@@ -10390,8 +11155,11 @@
       <c r="G250" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>253</v>
       </c>
@@ -10413,8 +11181,11 @@
       <c r="G251" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>254</v>
       </c>
@@ -10436,8 +11207,11 @@
       <c r="G252" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>255</v>
       </c>
@@ -10459,8 +11233,11 @@
       <c r="G253" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>256</v>
       </c>
@@ -10482,8 +11259,11 @@
       <c r="G254" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>258</v>
       </c>
@@ -10505,8 +11285,11 @@
       <c r="G255" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>259</v>
       </c>
@@ -10528,8 +11311,11 @@
       <c r="G256" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H256">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>260</v>
       </c>
@@ -10551,8 +11337,11 @@
       <c r="G257" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>261</v>
       </c>
@@ -10574,8 +11363,11 @@
       <c r="G258" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>262</v>
       </c>
@@ -10597,8 +11389,11 @@
       <c r="G259" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>263</v>
       </c>
@@ -10620,8 +11415,11 @@
       <c r="G260" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>264</v>
       </c>
@@ -10643,8 +11441,11 @@
       <c r="G261" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>265</v>
       </c>
@@ -10666,8 +11467,11 @@
       <c r="G262" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>266</v>
       </c>
@@ -10689,8 +11493,11 @@
       <c r="G263" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>267</v>
       </c>
@@ -10712,8 +11519,11 @@
       <c r="G264" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>268</v>
       </c>
@@ -10735,8 +11545,11 @@
       <c r="G265" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>269</v>
       </c>
@@ -10758,8 +11571,11 @@
       <c r="G266" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>270</v>
       </c>
@@ -10781,8 +11597,11 @@
       <c r="G267" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>271</v>
       </c>
@@ -10804,8 +11623,11 @@
       <c r="G268" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>272</v>
       </c>
@@ -10827,8 +11649,11 @@
       <c r="G269" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>273</v>
       </c>
@@ -10850,8 +11675,11 @@
       <c r="G270" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>274</v>
       </c>
@@ -10873,8 +11701,11 @@
       <c r="G271" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>275</v>
       </c>
@@ -10896,8 +11727,11 @@
       <c r="G272" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>276</v>
       </c>
@@ -10919,8 +11753,11 @@
       <c r="G273" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>277</v>
       </c>
@@ -10942,8 +11779,11 @@
       <c r="G274" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>278</v>
       </c>
@@ -10965,8 +11805,11 @@
       <c r="G275" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H275">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>279</v>
       </c>
@@ -10988,8 +11831,11 @@
       <c r="G276" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>280</v>
       </c>
@@ -11011,8 +11857,11 @@
       <c r="G277" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H277">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>281</v>
       </c>
@@ -11034,8 +11883,11 @@
       <c r="G278" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>282</v>
       </c>
@@ -11057,8 +11909,11 @@
       <c r="G279" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>283</v>
       </c>
@@ -11080,8 +11935,11 @@
       <c r="G280" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>284</v>
       </c>
@@ -11103,8 +11961,11 @@
       <c r="G281" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H281">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>285</v>
       </c>
@@ -11126,8 +11987,11 @@
       <c r="G282" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H282">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>286</v>
       </c>
@@ -11149,8 +12013,11 @@
       <c r="G283" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>287</v>
       </c>
@@ -11172,8 +12039,11 @@
       <c r="G284" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H284">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>288</v>
       </c>
@@ -11195,8 +12065,11 @@
       <c r="G285" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>289</v>
       </c>
@@ -11218,8 +12091,11 @@
       <c r="G286" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H286">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>290</v>
       </c>
@@ -11241,8 +12117,11 @@
       <c r="G287" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H287">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>291</v>
       </c>
@@ -11264,8 +12143,11 @@
       <c r="G288" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>292</v>
       </c>
@@ -11287,8 +12169,11 @@
       <c r="G289" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H289">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>293</v>
       </c>
@@ -11310,8 +12195,11 @@
       <c r="G290" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H290">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>295</v>
       </c>
@@ -11333,8 +12221,11 @@
       <c r="G291" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H291">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>296</v>
       </c>
@@ -11356,8 +12247,11 @@
       <c r="G292" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>297</v>
       </c>
@@ -11379,8 +12273,11 @@
       <c r="G293" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>298</v>
       </c>
@@ -11402,8 +12299,11 @@
       <c r="G294" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H294">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>299</v>
       </c>
@@ -11425,8 +12325,11 @@
       <c r="G295" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H295">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>300</v>
       </c>
@@ -11448,8 +12351,11 @@
       <c r="G296" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H296">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>301</v>
       </c>
@@ -11471,8 +12377,11 @@
       <c r="G297" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>302</v>
       </c>
@@ -11494,8 +12403,11 @@
       <c r="G298" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>303</v>
       </c>
@@ -11517,8 +12429,11 @@
       <c r="G299" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H299">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>304</v>
       </c>
@@ -11540,8 +12455,11 @@
       <c r="G300" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>305</v>
       </c>
@@ -11563,8 +12481,11 @@
       <c r="G301" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>306</v>
       </c>
@@ -11586,8 +12507,11 @@
       <c r="G302" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H302">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>307</v>
       </c>
@@ -11609,8 +12533,11 @@
       <c r="G303" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H303">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>308</v>
       </c>
@@ -11632,8 +12559,11 @@
       <c r="G304" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>309</v>
       </c>
@@ -11655,8 +12585,11 @@
       <c r="G305" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H305">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>310</v>
       </c>
@@ -11678,8 +12611,11 @@
       <c r="G306" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H306">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>311</v>
       </c>
@@ -11701,8 +12637,11 @@
       <c r="G307" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H307">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>312</v>
       </c>
@@ -11724,8 +12663,11 @@
       <c r="G308" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H308">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>313</v>
       </c>
@@ -11747,8 +12689,11 @@
       <c r="G309" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H309">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>314</v>
       </c>
@@ -11770,8 +12715,11 @@
       <c r="G310" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H310">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>315</v>
       </c>
@@ -11793,8 +12741,11 @@
       <c r="G311" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H311">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>317</v>
       </c>
@@ -11816,8 +12767,11 @@
       <c r="G312" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>318</v>
       </c>
@@ -11839,8 +12793,11 @@
       <c r="G313" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H313">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>319</v>
       </c>
@@ -11862,8 +12819,11 @@
       <c r="G314" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>320</v>
       </c>
@@ -11885,8 +12845,11 @@
       <c r="G315" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>321</v>
       </c>
@@ -11908,8 +12871,11 @@
       <c r="G316" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H316">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>322</v>
       </c>
@@ -11931,8 +12897,11 @@
       <c r="G317" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H317">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>323</v>
       </c>
@@ -11954,8 +12923,11 @@
       <c r="G318" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>324</v>
       </c>
@@ -11977,8 +12949,11 @@
       <c r="G319" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>325</v>
       </c>
@@ -12000,8 +12975,11 @@
       <c r="G320" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H320">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>326</v>
       </c>
@@ -12023,8 +13001,11 @@
       <c r="G321" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H321">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>327</v>
       </c>
@@ -12046,8 +13027,11 @@
       <c r="G322" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H322">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>328</v>
       </c>
@@ -12069,8 +13053,11 @@
       <c r="G323" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H323">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>330</v>
       </c>
@@ -12092,8 +13079,11 @@
       <c r="G324" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H324">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>331</v>
       </c>
@@ -12115,8 +13105,11 @@
       <c r="G325" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H325">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>332</v>
       </c>
@@ -12138,8 +13131,11 @@
       <c r="G326" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>333</v>
       </c>
@@ -12161,8 +13157,11 @@
       <c r="G327" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H327">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>334</v>
       </c>
@@ -12184,8 +13183,11 @@
       <c r="G328" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H328">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>335</v>
       </c>
@@ -12207,8 +13209,11 @@
       <c r="G329" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H329">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>336</v>
       </c>
@@ -12230,8 +13235,11 @@
       <c r="G330" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>337</v>
       </c>
@@ -12253,8 +13261,11 @@
       <c r="G331" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>338</v>
       </c>
@@ -12276,8 +13287,11 @@
       <c r="G332" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H332">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>339</v>
       </c>
@@ -12299,8 +13313,11 @@
       <c r="G333" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H333">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>340</v>
       </c>
@@ -12322,8 +13339,11 @@
       <c r="G334" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H334">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>341</v>
       </c>
@@ -12345,8 +13365,11 @@
       <c r="G335" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>342</v>
       </c>
@@ -12368,8 +13391,11 @@
       <c r="G336" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>343</v>
       </c>
@@ -12391,8 +13417,11 @@
       <c r="G337" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H337">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>344</v>
       </c>
@@ -12414,8 +13443,11 @@
       <c r="G338" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H338">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>345</v>
       </c>
@@ -12437,8 +13469,11 @@
       <c r="G339" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>346</v>
       </c>
@@ -12460,8 +13495,11 @@
       <c r="G340" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H340">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>347</v>
       </c>
@@ -12483,8 +13521,11 @@
       <c r="G341" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>348</v>
       </c>
@@ -12506,8 +13547,11 @@
       <c r="G342" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H342">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>349</v>
       </c>
@@ -12529,8 +13573,11 @@
       <c r="G343" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H343">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>350</v>
       </c>
@@ -12552,8 +13599,11 @@
       <c r="G344" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>351</v>
       </c>
@@ -12575,8 +13625,11 @@
       <c r="G345" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H345">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>353</v>
       </c>
@@ -12598,8 +13651,11 @@
       <c r="G346" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>354</v>
       </c>
@@ -12621,8 +13677,11 @@
       <c r="G347" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>355</v>
       </c>
@@ -12644,8 +13703,11 @@
       <c r="G348" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H348">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>356</v>
       </c>
@@ -12667,8 +13729,11 @@
       <c r="G349" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>358</v>
       </c>
@@ -12690,8 +13755,11 @@
       <c r="G350" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>359</v>
       </c>
@@ -12713,8 +13781,11 @@
       <c r="G351" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>360</v>
       </c>
@@ -12736,8 +13807,11 @@
       <c r="G352" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H352">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>361</v>
       </c>
@@ -12759,8 +13833,11 @@
       <c r="G353" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>362</v>
       </c>
@@ -12782,8 +13859,11 @@
       <c r="G354" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>363</v>
       </c>
@@ -12805,8 +13885,11 @@
       <c r="G355" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H355">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>364</v>
       </c>
@@ -12828,8 +13911,11 @@
       <c r="G356" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>365</v>
       </c>
@@ -12851,8 +13937,11 @@
       <c r="G357" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H357">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>366</v>
       </c>
@@ -12874,8 +13963,11 @@
       <c r="G358" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H358">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>367</v>
       </c>
@@ -12897,8 +13989,11 @@
       <c r="G359" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H359">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>368</v>
       </c>
@@ -12920,8 +14015,11 @@
       <c r="G360" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>369</v>
       </c>
@@ -12943,8 +14041,11 @@
       <c r="G361" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>370</v>
       </c>
@@ -12966,8 +14067,11 @@
       <c r="G362" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>372</v>
       </c>
@@ -12989,8 +14093,11 @@
       <c r="G363" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H363">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>373</v>
       </c>
@@ -13012,8 +14119,11 @@
       <c r="G364" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H364">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>374</v>
       </c>
@@ -13035,8 +14145,11 @@
       <c r="G365" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H365">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>375</v>
       </c>
@@ -13058,8 +14171,11 @@
       <c r="G366" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H366">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>376</v>
       </c>
@@ -13081,8 +14197,11 @@
       <c r="G367" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>377</v>
       </c>
@@ -13104,8 +14223,11 @@
       <c r="G368" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H368">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>378</v>
       </c>
@@ -13127,8 +14249,11 @@
       <c r="G369" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>379</v>
       </c>
@@ -13150,8 +14275,11 @@
       <c r="G370" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H370">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>380</v>
       </c>
@@ -13173,8 +14301,11 @@
       <c r="G371" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H371">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>381</v>
       </c>
@@ -13196,8 +14327,11 @@
       <c r="G372" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>382</v>
       </c>
@@ -13219,8 +14353,11 @@
       <c r="G373" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H373">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>383</v>
       </c>
@@ -13242,8 +14379,11 @@
       <c r="G374" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H374">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>385</v>
       </c>
@@ -13265,8 +14405,11 @@
       <c r="G375" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H375">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>386</v>
       </c>
@@ -13288,8 +14431,11 @@
       <c r="G376" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H376">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>387</v>
       </c>
@@ -13311,8 +14457,11 @@
       <c r="G377" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H377">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>388</v>
       </c>
@@ -13334,8 +14483,11 @@
       <c r="G378" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>389</v>
       </c>
@@ -13357,8 +14509,11 @@
       <c r="G379" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>391</v>
       </c>
@@ -13380,8 +14535,11 @@
       <c r="G380" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>392</v>
       </c>
@@ -13403,8 +14561,11 @@
       <c r="G381" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H381">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>393</v>
       </c>
@@ -13426,8 +14587,11 @@
       <c r="G382" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>394</v>
       </c>
@@ -13449,8 +14613,11 @@
       <c r="G383" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>395</v>
       </c>
@@ -13472,8 +14639,11 @@
       <c r="G384" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H384">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>396</v>
       </c>
@@ -13495,8 +14665,11 @@
       <c r="G385" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>397</v>
       </c>
@@ -13518,8 +14691,11 @@
       <c r="G386" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>398</v>
       </c>
@@ -13541,8 +14717,11 @@
       <c r="G387" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>399</v>
       </c>
@@ -13564,8 +14743,11 @@
       <c r="G388" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H388">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>400</v>
       </c>
@@ -13587,8 +14769,11 @@
       <c r="G389" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H389">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>401</v>
       </c>
@@ -13610,8 +14795,11 @@
       <c r="G390" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H390">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>402</v>
       </c>
@@ -13633,8 +14821,11 @@
       <c r="G391" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H391">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>403</v>
       </c>
@@ -13656,8 +14847,11 @@
       <c r="G392" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>404</v>
       </c>
@@ -13679,8 +14873,11 @@
       <c r="G393" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H393">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>405</v>
       </c>
@@ -13702,8 +14899,11 @@
       <c r="G394" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H394">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>407</v>
       </c>
@@ -13725,8 +14925,11 @@
       <c r="G395" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>408</v>
       </c>
@@ -13748,8 +14951,11 @@
       <c r="G396" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H396">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>409</v>
       </c>
@@ -13771,8 +14977,11 @@
       <c r="G397" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>410</v>
       </c>
@@ -13794,8 +15003,11 @@
       <c r="G398" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>411</v>
       </c>
@@ -13817,8 +15029,11 @@
       <c r="G399" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>412</v>
       </c>
@@ -13840,8 +15055,11 @@
       <c r="G400" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>413</v>
       </c>
@@ -13863,8 +15081,11 @@
       <c r="G401" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>414</v>
       </c>
@@ -13886,8 +15107,11 @@
       <c r="G402" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H402">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>415</v>
       </c>
@@ -13909,8 +15133,11 @@
       <c r="G403" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H403">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>416</v>
       </c>
@@ -13932,8 +15159,11 @@
       <c r="G404" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>417</v>
       </c>
@@ -13955,8 +15185,11 @@
       <c r="G405" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H405">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>418</v>
       </c>
@@ -13978,8 +15211,11 @@
       <c r="G406" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H406">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>419</v>
       </c>
@@ -14001,8 +15237,11 @@
       <c r="G407" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H407">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>420</v>
       </c>
@@ -14024,8 +15263,11 @@
       <c r="G408" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H408">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>421</v>
       </c>
@@ -14047,8 +15289,11 @@
       <c r="G409" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H409">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>422</v>
       </c>
@@ -14070,8 +15315,11 @@
       <c r="G410" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H410">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>423</v>
       </c>
@@ -14093,8 +15341,11 @@
       <c r="G411" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H411">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>424</v>
       </c>
@@ -14116,8 +15367,11 @@
       <c r="G412" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H412">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>425</v>
       </c>
@@ -14139,8 +15393,11 @@
       <c r="G413" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>426</v>
       </c>
@@ -14162,8 +15419,11 @@
       <c r="G414" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H414">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>427</v>
       </c>
@@ -14185,8 +15445,11 @@
       <c r="G415" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H415">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>428</v>
       </c>
@@ -14208,8 +15471,11 @@
       <c r="G416" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H416">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>429</v>
       </c>
@@ -14231,8 +15497,11 @@
       <c r="G417" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H417">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>430</v>
       </c>
@@ -14254,8 +15523,11 @@
       <c r="G418" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H418">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>431</v>
       </c>
@@ -14277,8 +15549,11 @@
       <c r="G419" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H419">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>432</v>
       </c>
@@ -14300,8 +15575,11 @@
       <c r="G420" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H420">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>433</v>
       </c>
@@ -14323,8 +15601,11 @@
       <c r="G421" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H421">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>434</v>
       </c>
@@ -14346,8 +15627,11 @@
       <c r="G422" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H422">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>435</v>
       </c>
@@ -14369,8 +15653,11 @@
       <c r="G423" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H423">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>436</v>
       </c>
@@ -14392,8 +15679,11 @@
       <c r="G424" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>437</v>
       </c>
@@ -14415,8 +15705,11 @@
       <c r="G425" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H425">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>438</v>
       </c>
@@ -14438,8 +15731,11 @@
       <c r="G426" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>439</v>
       </c>
@@ -14461,8 +15757,11 @@
       <c r="G427" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H427">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>440</v>
       </c>
@@ -14484,8 +15783,11 @@
       <c r="G428" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H428">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>441</v>
       </c>
@@ -14507,8 +15809,11 @@
       <c r="G429" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>442</v>
       </c>
@@ -14530,8 +15835,11 @@
       <c r="G430" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>443</v>
       </c>
@@ -14553,8 +15861,11 @@
       <c r="G431" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H431">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>444</v>
       </c>
@@ -14576,8 +15887,11 @@
       <c r="G432" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>445</v>
       </c>
@@ -14599,8 +15913,11 @@
       <c r="G433" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H433">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>446</v>
       </c>
@@ -14622,8 +15939,11 @@
       <c r="G434" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>447</v>
       </c>
@@ -14645,8 +15965,11 @@
       <c r="G435" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>448</v>
       </c>
@@ -14668,8 +15991,11 @@
       <c r="G436" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H436">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>449</v>
       </c>
@@ -14691,8 +16017,11 @@
       <c r="G437" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>450</v>
       </c>
@@ -14714,8 +16043,11 @@
       <c r="G438" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H438">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>451</v>
       </c>
@@ -14737,8 +16069,11 @@
       <c r="G439" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>452</v>
       </c>
@@ -14760,8 +16095,11 @@
       <c r="G440" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H440">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>453</v>
       </c>
@@ -14783,8 +16121,11 @@
       <c r="G441" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H441">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>454</v>
       </c>
@@ -14806,8 +16147,11 @@
       <c r="G442" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H442">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>456</v>
       </c>
@@ -14829,8 +16173,11 @@
       <c r="G443" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H443">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>457</v>
       </c>
@@ -14852,8 +16199,11 @@
       <c r="G444" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H444">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>458</v>
       </c>
@@ -14875,8 +16225,11 @@
       <c r="G445" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H445">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>459</v>
       </c>
@@ -14898,8 +16251,11 @@
       <c r="G446" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>460</v>
       </c>
@@ -14921,8 +16277,11 @@
       <c r="G447" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>461</v>
       </c>
@@ -14944,8 +16303,11 @@
       <c r="G448" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H448">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>462</v>
       </c>
@@ -14967,8 +16329,11 @@
       <c r="G449" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H449">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>463</v>
       </c>
@@ -14990,8 +16355,11 @@
       <c r="G450" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>464</v>
       </c>
@@ -15013,8 +16381,11 @@
       <c r="G451" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H451">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>465</v>
       </c>
@@ -15036,8 +16407,11 @@
       <c r="G452" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H452">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>466</v>
       </c>
@@ -15059,8 +16433,11 @@
       <c r="G453" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>467</v>
       </c>
@@ -15082,8 +16459,11 @@
       <c r="G454" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H454">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>468</v>
       </c>
@@ -15105,8 +16485,11 @@
       <c r="G455" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>469</v>
       </c>
@@ -15128,8 +16511,11 @@
       <c r="G456" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>470</v>
       </c>
@@ -15151,8 +16537,11 @@
       <c r="G457" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H457">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>471</v>
       </c>
@@ -15174,8 +16563,11 @@
       <c r="G458" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H458">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>472</v>
       </c>
@@ -15197,8 +16589,11 @@
       <c r="G459" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H459">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>474</v>
       </c>
@@ -15220,8 +16615,11 @@
       <c r="G460" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H460">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>475</v>
       </c>
@@ -15243,8 +16641,11 @@
       <c r="G461" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H461">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>476</v>
       </c>
@@ -15266,8 +16667,11 @@
       <c r="G462" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H462">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>477</v>
       </c>
@@ -15289,8 +16693,11 @@
       <c r="G463" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H463">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>478</v>
       </c>
@@ -15312,8 +16719,11 @@
       <c r="G464" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H464">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>479</v>
       </c>
@@ -15335,8 +16745,11 @@
       <c r="G465" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>480</v>
       </c>
@@ -15358,8 +16771,11 @@
       <c r="G466" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H466">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>481</v>
       </c>
@@ -15381,8 +16797,11 @@
       <c r="G467" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>482</v>
       </c>
@@ -15404,8 +16823,11 @@
       <c r="G468" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H468">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>483</v>
       </c>
@@ -15427,8 +16849,11 @@
       <c r="G469" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H469">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>484</v>
       </c>
@@ -15450,8 +16875,11 @@
       <c r="G470" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H470">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>485</v>
       </c>
@@ -15473,8 +16901,11 @@
       <c r="G471" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H471">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>486</v>
       </c>
@@ -15496,8 +16927,11 @@
       <c r="G472" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H472">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>487</v>
       </c>
@@ -15519,8 +16953,11 @@
       <c r="G473" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H473">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>488</v>
       </c>
@@ -15542,8 +16979,11 @@
       <c r="G474" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H474">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>489</v>
       </c>
@@ -15565,8 +17005,11 @@
       <c r="G475" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>490</v>
       </c>
@@ -15588,8 +17031,11 @@
       <c r="G476" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H476">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>491</v>
       </c>
@@ -15611,8 +17057,11 @@
       <c r="G477" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H477">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>492</v>
       </c>
@@ -15634,8 +17083,11 @@
       <c r="G478" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H478">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>493</v>
       </c>
@@ -15657,8 +17109,11 @@
       <c r="G479" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H479">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>494</v>
       </c>
@@ -15680,8 +17135,11 @@
       <c r="G480" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H480">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>495</v>
       </c>
@@ -15703,8 +17161,11 @@
       <c r="G481" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H481">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>496</v>
       </c>
@@ -15726,8 +17187,11 @@
       <c r="G482" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>497</v>
       </c>
@@ -15749,8 +17213,11 @@
       <c r="G483" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H483">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>498</v>
       </c>
@@ -15772,8 +17239,11 @@
       <c r="G484" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>499</v>
       </c>
@@ -15795,8 +17265,11 @@
       <c r="G485" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H485">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>500</v>
       </c>
@@ -15818,8 +17291,11 @@
       <c r="G486" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>501</v>
       </c>
@@ -15841,8 +17317,11 @@
       <c r="G487" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>502</v>
       </c>
@@ -15864,8 +17343,11 @@
       <c r="G488" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H488">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>503</v>
       </c>
@@ -15887,8 +17369,11 @@
       <c r="G489" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>504</v>
       </c>
@@ -15910,8 +17395,11 @@
       <c r="G490" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>505</v>
       </c>
@@ -15933,8 +17421,11 @@
       <c r="G491" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>506</v>
       </c>
@@ -15956,8 +17447,11 @@
       <c r="G492" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H492">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>507</v>
       </c>
@@ -15979,8 +17473,11 @@
       <c r="G493" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H493">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>508</v>
       </c>
@@ -16002,8 +17499,11 @@
       <c r="G494" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H494">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>509</v>
       </c>
@@ -16025,8 +17525,11 @@
       <c r="G495" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H495">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>510</v>
       </c>
@@ -16048,8 +17551,11 @@
       <c r="G496" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>511</v>
       </c>
@@ -16071,8 +17577,11 @@
       <c r="G497" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H497">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>512</v>
       </c>
@@ -16094,8 +17603,11 @@
       <c r="G498" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H498">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>513</v>
       </c>
@@ -16117,8 +17629,11 @@
       <c r="G499" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H499">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>514</v>
       </c>
@@ -16140,8 +17655,11 @@
       <c r="G500" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>515</v>
       </c>
@@ -16163,8 +17681,11 @@
       <c r="G501" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>516</v>
       </c>
@@ -16186,8 +17707,11 @@
       <c r="G502" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>517</v>
       </c>
@@ -16209,8 +17733,11 @@
       <c r="G503" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H503">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>518</v>
       </c>
@@ -16232,8 +17759,11 @@
       <c r="G504" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H504">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>519</v>
       </c>
@@ -16255,8 +17785,11 @@
       <c r="G505" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H505">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>520</v>
       </c>
@@ -16278,8 +17811,11 @@
       <c r="G506" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H506">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>521</v>
       </c>
@@ -16301,8 +17837,11 @@
       <c r="G507" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>522</v>
       </c>
@@ -16324,8 +17863,11 @@
       <c r="G508" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H508">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>523</v>
       </c>
@@ -16347,8 +17889,11 @@
       <c r="G509" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H509">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>524</v>
       </c>
@@ -16370,8 +17915,11 @@
       <c r="G510" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H510">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>525</v>
       </c>
@@ -16393,8 +17941,11 @@
       <c r="G511" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H511">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>526</v>
       </c>
@@ -16416,8 +17967,11 @@
       <c r="G512" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>527</v>
       </c>
@@ -16439,8 +17993,11 @@
       <c r="G513" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H513">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>529</v>
       </c>
@@ -16462,8 +18019,11 @@
       <c r="G514" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H514">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>530</v>
       </c>
@@ -16485,8 +18045,11 @@
       <c r="G515" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H515">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>531</v>
       </c>
@@ -16508,8 +18071,11 @@
       <c r="G516" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H516">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>532</v>
       </c>
@@ -16531,8 +18097,11 @@
       <c r="G517" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H517">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>533</v>
       </c>
@@ -16554,8 +18123,11 @@
       <c r="G518" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H518">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>534</v>
       </c>
@@ -16577,8 +18149,11 @@
       <c r="G519" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H519">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>535</v>
       </c>
@@ -16600,8 +18175,11 @@
       <c r="G520" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>536</v>
       </c>
@@ -16623,8 +18201,11 @@
       <c r="G521" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>537</v>
       </c>
@@ -16646,8 +18227,11 @@
       <c r="G522" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H522">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>538</v>
       </c>
@@ -16669,8 +18253,11 @@
       <c r="G523" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>539</v>
       </c>
@@ -16692,8 +18279,11 @@
       <c r="G524" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H524">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>540</v>
       </c>
@@ -16715,8 +18305,11 @@
       <c r="G525" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>541</v>
       </c>
@@ -16738,8 +18331,11 @@
       <c r="G526" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>542</v>
       </c>
@@ -16761,8 +18357,11 @@
       <c r="G527" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>543</v>
       </c>
@@ -16784,8 +18383,11 @@
       <c r="G528" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H528">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>544</v>
       </c>
@@ -16807,8 +18409,11 @@
       <c r="G529" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H529">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>545</v>
       </c>
@@ -16830,8 +18435,11 @@
       <c r="G530" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H530">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>546</v>
       </c>
@@ -16853,8 +18461,11 @@
       <c r="G531" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>547</v>
       </c>
@@ -16876,8 +18487,11 @@
       <c r="G532" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H532">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>548</v>
       </c>
@@ -16899,8 +18513,11 @@
       <c r="G533" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H533">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>549</v>
       </c>
@@ -16922,8 +18539,11 @@
       <c r="G534" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H534">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>550</v>
       </c>
@@ -16945,8 +18565,11 @@
       <c r="G535" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H535">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>551</v>
       </c>
@@ -16968,8 +18591,11 @@
       <c r="G536" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H536">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>553</v>
       </c>
@@ -16991,8 +18617,11 @@
       <c r="G537" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H537">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>554</v>
       </c>
@@ -17014,8 +18643,11 @@
       <c r="G538" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>555</v>
       </c>
@@ -17037,8 +18669,11 @@
       <c r="G539" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H539">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>556</v>
       </c>
@@ -17060,8 +18695,11 @@
       <c r="G540" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H540">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>557</v>
       </c>
@@ -17083,8 +18721,11 @@
       <c r="G541" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H541">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>558</v>
       </c>
@@ -17106,8 +18747,11 @@
       <c r="G542" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H542">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>559</v>
       </c>
@@ -17129,8 +18773,11 @@
       <c r="G543" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H543">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>560</v>
       </c>
@@ -17152,8 +18799,11 @@
       <c r="G544" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>561</v>
       </c>
@@ -17175,8 +18825,11 @@
       <c r="G545" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H545">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>562</v>
       </c>
@@ -17198,8 +18851,11 @@
       <c r="G546" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>563</v>
       </c>
@@ -17221,8 +18877,11 @@
       <c r="G547" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H547">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>564</v>
       </c>
@@ -17244,8 +18903,11 @@
       <c r="G548" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>565</v>
       </c>
@@ -17267,8 +18929,11 @@
       <c r="G549" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>566</v>
       </c>
@@ -17290,8 +18955,11 @@
       <c r="G550" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H550">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>567</v>
       </c>
@@ -17313,8 +18981,11 @@
       <c r="G551" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>568</v>
       </c>
@@ -17336,8 +19007,11 @@
       <c r="G552" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H552">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>569</v>
       </c>
@@ -17359,8 +19033,11 @@
       <c r="G553" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>570</v>
       </c>
@@ -17382,8 +19059,11 @@
       <c r="G554" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>571</v>
       </c>
@@ -17405,8 +19085,11 @@
       <c r="G555" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H555">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>572</v>
       </c>
@@ -17428,8 +19111,11 @@
       <c r="G556" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H556">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>573</v>
       </c>
@@ -17451,8 +19137,11 @@
       <c r="G557" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H557">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>574</v>
       </c>
@@ -17474,8 +19163,11 @@
       <c r="G558" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H558">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>575</v>
       </c>
@@ -17497,8 +19189,11 @@
       <c r="G559" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H559">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>576</v>
       </c>
@@ -17520,8 +19215,11 @@
       <c r="G560" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H560">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>577</v>
       </c>
@@ -17543,8 +19241,11 @@
       <c r="G561" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H561">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>578</v>
       </c>
@@ -17566,8 +19267,11 @@
       <c r="G562" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H562">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>579</v>
       </c>
@@ -17589,8 +19293,11 @@
       <c r="G563" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H563">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>580</v>
       </c>
@@ -17612,8 +19319,11 @@
       <c r="G564" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H564">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>581</v>
       </c>
@@ -17635,8 +19345,11 @@
       <c r="G565" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H565">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>582</v>
       </c>
@@ -17658,8 +19371,11 @@
       <c r="G566" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H566">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>583</v>
       </c>
@@ -17681,8 +19397,11 @@
       <c r="G567" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H567">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>584</v>
       </c>
@@ -17704,8 +19423,11 @@
       <c r="G568" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H568">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>585</v>
       </c>
@@ -17727,8 +19449,11 @@
       <c r="G569" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H569">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>586</v>
       </c>
@@ -17750,8 +19475,11 @@
       <c r="G570" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H570">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>587</v>
       </c>
@@ -17773,8 +19501,11 @@
       <c r="G571" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>588</v>
       </c>
@@ -17796,8 +19527,11 @@
       <c r="G572" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>589</v>
       </c>
@@ -17819,8 +19553,11 @@
       <c r="G573" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H573">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>590</v>
       </c>
@@ -17842,8 +19579,11 @@
       <c r="G574" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>591</v>
       </c>
@@ -17865,8 +19605,11 @@
       <c r="G575" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H575">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>592</v>
       </c>
@@ -17888,8 +19631,11 @@
       <c r="G576" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H576">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>593</v>
       </c>
@@ -17911,8 +19657,11 @@
       <c r="G577" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H577">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>594</v>
       </c>
@@ -17934,8 +19683,11 @@
       <c r="G578" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>595</v>
       </c>
@@ -17957,8 +19709,11 @@
       <c r="G579" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H579">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>596</v>
       </c>
@@ -17980,8 +19735,11 @@
       <c r="G580" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>597</v>
       </c>
@@ -18003,8 +19761,11 @@
       <c r="G581" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>598</v>
       </c>
@@ -18026,8 +19787,11 @@
       <c r="G582" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H582">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>599</v>
       </c>
@@ -18049,8 +19813,11 @@
       <c r="G583" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>600</v>
       </c>
@@ -18072,8 +19839,11 @@
       <c r="G584" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>601</v>
       </c>
@@ -18095,8 +19865,11 @@
       <c r="G585" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H585">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>602</v>
       </c>
@@ -18118,8 +19891,11 @@
       <c r="G586" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>603</v>
       </c>
@@ -18141,8 +19917,11 @@
       <c r="G587" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H587">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>604</v>
       </c>
@@ -18164,8 +19943,11 @@
       <c r="G588" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H588">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>605</v>
       </c>
@@ -18187,8 +19969,11 @@
       <c r="G589" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H589">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>606</v>
       </c>
@@ -18210,8 +19995,11 @@
       <c r="G590" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H590">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>607</v>
       </c>
@@ -18233,8 +20021,11 @@
       <c r="G591" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H591">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>608</v>
       </c>
@@ -18256,8 +20047,11 @@
       <c r="G592" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H592">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>609</v>
       </c>
@@ -18279,8 +20073,11 @@
       <c r="G593" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H593">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>610</v>
       </c>
@@ -18302,8 +20099,11 @@
       <c r="G594" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>611</v>
       </c>
@@ -18325,8 +20125,11 @@
       <c r="G595" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H595">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>612</v>
       </c>
@@ -18348,8 +20151,11 @@
       <c r="G596" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>613</v>
       </c>
@@ -18371,8 +20177,11 @@
       <c r="G597" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>614</v>
       </c>
@@ -18394,8 +20203,11 @@
       <c r="G598" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H598">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>615</v>
       </c>
@@ -18417,8 +20229,11 @@
       <c r="G599" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H599">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>616</v>
       </c>
@@ -18440,8 +20255,11 @@
       <c r="G600" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>617</v>
       </c>
@@ -18463,8 +20281,11 @@
       <c r="G601" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>618</v>
       </c>
@@ -18486,8 +20307,11 @@
       <c r="G602" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>619</v>
       </c>
@@ -18509,8 +20333,11 @@
       <c r="G603" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H603">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>620</v>
       </c>
@@ -18532,8 +20359,11 @@
       <c r="G604" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>622</v>
       </c>
@@ -18555,8 +20385,11 @@
       <c r="G605" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H605">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>623</v>
       </c>
@@ -18578,8 +20411,11 @@
       <c r="G606" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>624</v>
       </c>
@@ -18601,8 +20437,11 @@
       <c r="G607" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H607">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>625</v>
       </c>
@@ -18624,8 +20463,11 @@
       <c r="G608" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H608">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>626</v>
       </c>
@@ -18647,8 +20489,11 @@
       <c r="G609" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>627</v>
       </c>
@@ -18670,8 +20515,11 @@
       <c r="G610" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H610">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>628</v>
       </c>
@@ -18693,8 +20541,11 @@
       <c r="G611" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>629</v>
       </c>
@@ -18716,8 +20567,11 @@
       <c r="G612" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H612">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>630</v>
       </c>
@@ -18739,8 +20593,11 @@
       <c r="G613" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H613">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>631</v>
       </c>
@@ -18762,8 +20619,11 @@
       <c r="G614" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H614">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>632</v>
       </c>
@@ -18785,8 +20645,11 @@
       <c r="G615" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H615">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>633</v>
       </c>
@@ -18808,8 +20671,11 @@
       <c r="G616" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>634</v>
       </c>
@@ -18831,8 +20697,11 @@
       <c r="G617" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H617">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>635</v>
       </c>
@@ -18854,8 +20723,11 @@
       <c r="G618" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H618">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>636</v>
       </c>
@@ -18877,8 +20749,11 @@
       <c r="G619" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>637</v>
       </c>
@@ -18900,8 +20775,11 @@
       <c r="G620" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>638</v>
       </c>
@@ -18923,8 +20801,11 @@
       <c r="G621" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>639</v>
       </c>
@@ -18946,8 +20827,11 @@
       <c r="G622" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>640</v>
       </c>
@@ -18969,8 +20853,11 @@
       <c r="G623" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>641</v>
       </c>
@@ -18992,8 +20879,11 @@
       <c r="G624" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H624">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>642</v>
       </c>
@@ -19015,8 +20905,11 @@
       <c r="G625" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H625">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>643</v>
       </c>
@@ -19038,8 +20931,11 @@
       <c r="G626" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H626">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>644</v>
       </c>
@@ -19061,8 +20957,11 @@
       <c r="G627" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H627">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>646</v>
       </c>
@@ -19084,8 +20983,11 @@
       <c r="G628" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H628">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>647</v>
       </c>
@@ -19107,8 +21009,11 @@
       <c r="G629" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H629">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>648</v>
       </c>
@@ -19130,8 +21035,11 @@
       <c r="G630" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H630">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>649</v>
       </c>
@@ -19153,8 +21061,11 @@
       <c r="G631" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H631">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>650</v>
       </c>
@@ -19176,8 +21087,11 @@
       <c r="G632" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H632">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>651</v>
       </c>
@@ -19199,8 +21113,11 @@
       <c r="G633" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>652</v>
       </c>
@@ -19222,8 +21139,11 @@
       <c r="G634" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>653</v>
       </c>
@@ -19245,8 +21165,11 @@
       <c r="G635" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H635">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>654</v>
       </c>
@@ -19268,8 +21191,11 @@
       <c r="G636" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H636">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>655</v>
       </c>
@@ -19291,8 +21217,11 @@
       <c r="G637" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H637">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>656</v>
       </c>
@@ -19314,8 +21243,11 @@
       <c r="G638" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>657</v>
       </c>
@@ -19337,8 +21269,11 @@
       <c r="G639" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H639">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>658</v>
       </c>
@@ -19360,8 +21295,11 @@
       <c r="G640" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H640">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>659</v>
       </c>
@@ -19383,8 +21321,11 @@
       <c r="G641" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H641">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>660</v>
       </c>
@@ -19406,8 +21347,11 @@
       <c r="G642" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>661</v>
       </c>
@@ -19429,8 +21373,11 @@
       <c r="G643" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H643">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>663</v>
       </c>
@@ -19452,8 +21399,11 @@
       <c r="G644" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>664</v>
       </c>
@@ -19475,8 +21425,11 @@
       <c r="G645" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H645">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>665</v>
       </c>
@@ -19498,8 +21451,11 @@
       <c r="G646" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>666</v>
       </c>
@@ -19521,8 +21477,11 @@
       <c r="G647" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H647">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>667</v>
       </c>
@@ -19544,8 +21503,11 @@
       <c r="G648" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H648">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>668</v>
       </c>
@@ -19567,8 +21529,11 @@
       <c r="G649" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>669</v>
       </c>
@@ -19590,8 +21555,11 @@
       <c r="G650" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H650">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>670</v>
       </c>
@@ -19613,8 +21581,11 @@
       <c r="G651" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H651">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>671</v>
       </c>
@@ -19636,8 +21607,11 @@
       <c r="G652" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H652">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>672</v>
       </c>
@@ -19659,8 +21633,11 @@
       <c r="G653" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H653">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>673</v>
       </c>
@@ -19682,8 +21659,11 @@
       <c r="G654" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H654">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>674</v>
       </c>
@@ -19705,8 +21685,11 @@
       <c r="G655" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>675</v>
       </c>
@@ -19728,8 +21711,11 @@
       <c r="G656" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H656">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>676</v>
       </c>
@@ -19751,8 +21737,11 @@
       <c r="G657" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>677</v>
       </c>
@@ -19774,8 +21763,11 @@
       <c r="G658" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>678</v>
       </c>
@@ -19797,8 +21789,11 @@
       <c r="G659" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H659">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>679</v>
       </c>
@@ -19820,8 +21815,11 @@
       <c r="G660" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H660">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>680</v>
       </c>
@@ -19843,8 +21841,11 @@
       <c r="G661" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H661">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>681</v>
       </c>
@@ -19866,8 +21867,11 @@
       <c r="G662" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H662">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>682</v>
       </c>
@@ -19889,8 +21893,11 @@
       <c r="G663" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H663">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>684</v>
       </c>
@@ -19912,8 +21919,11 @@
       <c r="G664" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>685</v>
       </c>
@@ -19935,8 +21945,11 @@
       <c r="G665" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>686</v>
       </c>
@@ -19958,8 +21971,11 @@
       <c r="G666" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H666">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>687</v>
       </c>
@@ -19981,8 +21997,11 @@
       <c r="G667" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>688</v>
       </c>
@@ -20004,8 +22023,11 @@
       <c r="G668" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>689</v>
       </c>
@@ -20027,8 +22049,11 @@
       <c r="G669" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>690</v>
       </c>
@@ -20050,8 +22075,11 @@
       <c r="G670" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H670">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>691</v>
       </c>
@@ -20073,8 +22101,11 @@
       <c r="G671" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H671">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>692</v>
       </c>
@@ -20096,8 +22127,11 @@
       <c r="G672" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H672">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>693</v>
       </c>
@@ -20119,8 +22153,11 @@
       <c r="G673" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H673">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>694</v>
       </c>
@@ -20142,8 +22179,11 @@
       <c r="G674" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H674">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>695</v>
       </c>
@@ -20165,8 +22205,11 @@
       <c r="G675" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>696</v>
       </c>
@@ -20188,8 +22231,11 @@
       <c r="G676" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H676">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>697</v>
       </c>
@@ -20211,8 +22257,11 @@
       <c r="G677" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H677">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>698</v>
       </c>
@@ -20234,8 +22283,11 @@
       <c r="G678" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H678">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>699</v>
       </c>
@@ -20255,6 +22307,9 @@
         <v>4</v>
       </c>
       <c r="G679" s="2">
+        <v>6</v>
+      </c>
+      <c r="H679">
         <v>6</v>
       </c>
     </row>
